--- a/biology/Botanique/Berliner_Luft_(rose)/Berliner_Luft_(rose).xlsx
+++ b/biology/Botanique/Berliner_Luft_(rose)/Berliner_Luft_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La rose 'Berliner Luft' (en français, Air de Berlin) est un cultivar de rosier obtenu par la rosiériste Anne G. Cocker (1920-2014) en 1985 et introduit par les roseraies Hauser cette même année en Suisse sous le nom de 'Jura'[1] ; cette rose est baptisée d'après le fameux hymne de la ville de Berlin, marche composée avec parties sifflées par Paul Lincke (1866-1946) pour son opérette Frau Luna en 1899[2].
+La rose 'Berliner Luft' (en français, Air de Berlin) est un cultivar de rosier obtenu par la rosiériste Anne G. Cocker (1920-2014) en 1985 et introduit par les roseraies Hauser cette même année en Suisse sous le nom de 'Jura' ; cette rose est baptisée d'après le fameux hymne de la ville de Berlin, marche composée avec parties sifflées par Paul Lincke (1866-1946) pour son opérette Frau Luna en 1899.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette rose double (17-25 pétales) légèrement parfumée de couleur jaune-orangé est de la famille des floribundas[1]. Elle est très florifère et son feuillage vert dense est exempt de maladies. 'Berliner Luft' se satisfait de la mi-ombre et peut atteindre 90 cm.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette rose double (17-25 pétales) légèrement parfumée de couleur jaune-orangé est de la famille des floribundas. Elle est très florifère et son feuillage vert dense est exempt de maladies. 'Berliner Luft' se satisfait de la mi-ombre et peut atteindre 90 cm.
 Sa zone de rusticité est 6b - 9b.
 </t>
         </is>
